--- a/Project Outputs for LTC2949_TestBoard/BOM/Bill of Materials-LTC2949.xlsx
+++ b/Project Outputs for LTC2949_TestBoard/BOM/Bill of Materials-LTC2949.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navey\Documents\Git\New_BMS\LTC2949\Project Outputs for LTC2949_TestBoard\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB27A491-1EA0-4457-B166-DF076E774E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CCF5AB4-8835-41D3-A8A3-8B34EF82482B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1688" yWindow="1688" windowWidth="19042" windowHeight="11647" xr2:uid="{1BD58969-F385-4BD2-B373-BE73044158D9}"/>
+    <workbookView xWindow="1688" yWindow="1688" windowWidth="19042" windowHeight="11647" xr2:uid="{A3891D8E-CCA4-445E-9F01-14BABD699841}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-LTC2949" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>Designator</t>
   </si>
@@ -94,7 +94,7 @@
     <t>C10, C11</t>
   </si>
   <si>
-    <t>28pF</t>
+    <t>33pF</t>
   </si>
   <si>
     <t>D1</t>
@@ -130,7 +130,7 @@
     <t>R1, R2, R3, R4, R16, R17, R18</t>
   </si>
   <si>
-    <t>50k</t>
+    <t>49.9k</t>
   </si>
   <si>
     <t>1206 - Resistor</t>
@@ -151,9 +151,6 @@
     <t>100m</t>
   </si>
   <si>
-    <t>0805 - Resistor</t>
-  </si>
-  <si>
     <t>R8</t>
   </si>
   <si>
@@ -212,9 +209,6 @@
   </si>
   <si>
     <t>ABLS_4MHZ-K4T</t>
-  </si>
-  <si>
-    <t>BUL216</t>
   </si>
 </sst>
 </file>
@@ -590,19 +584,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7394FEFF-49BA-4A29-BD26-E91E1FDE8EEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B68823B-0B18-4C8D-8B36-2956AC321F07}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.53125" customWidth="1"/>
-    <col min="2" max="2" width="15.53125" customWidth="1"/>
-    <col min="3" max="3" width="17.1328125" customWidth="1"/>
-    <col min="4" max="7" width="15.53125" customWidth="1"/>
+    <col min="2" max="7" width="15.53125" customWidth="1"/>
     <col min="8" max="8" width="18.53125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -813,9 +803,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="G11" s="1"/>
       <c r="H11" s="1">
         <v>1</v>
       </c>
@@ -880,7 +868,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -892,13 +880,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -910,10 +898,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>34</v>
@@ -928,10 +916,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>34</v>
@@ -946,10 +934,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>34</v>
@@ -964,10 +952,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>34</v>
@@ -982,11 +970,11 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -998,23 +986,23 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="H21" s="1">
         <v>1</v>
@@ -1022,11 +1010,11 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>

--- a/Project Outputs for LTC2949_TestBoard/BOM/Bill of Materials-LTC2949.xlsx
+++ b/Project Outputs for LTC2949_TestBoard/BOM/Bill of Materials-LTC2949.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navey\Documents\Git\New_BMS\LTC2949\Project Outputs for LTC2949_TestBoard\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CCF5AB4-8835-41D3-A8A3-8B34EF82482B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8949E2B0-E14C-436C-A0DC-B35B100064AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1688" yWindow="1688" windowWidth="19042" windowHeight="11647" xr2:uid="{A3891D8E-CCA4-445E-9F01-14BABD699841}"/>
+    <workbookView xWindow="1688" yWindow="1688" windowWidth="19042" windowHeight="11647" xr2:uid="{34B1A79B-4AC3-4CA7-AE4D-719A1967B396}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-LTC2949" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -584,7 +583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B68823B-0B18-4C8D-8B36-2956AC321F07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432116B6-4AA0-420F-B442-6DE0F0BA3542}">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
